--- a/data_raw/SMT_item_bank.xlsx
+++ b/data_raw/SMT_item_bank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\SMT\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3309B9-4FD7-C347-8E14-B3713863E163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3625CF13-210F-4798-A53C-72EF8A59104D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20760" yWindow="4420" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMMT_item_bank" sheetId="1" r:id="rId1"/>
@@ -34,72 +34,144 @@
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{566B9D95-F8FC-204E-BE50-2211D7095438}">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     2. Ton höher oder tiefer: 
 1=höher, 2 = tiefer</t>
+        </r>
       </text>
     </comment>
     <comment ref="B52" authorId="1" shapeId="0" xr:uid="{39A684A1-1BEF-C442-AF1F-EE2991032C75}">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     2. Ton lauter oder leise:
 1=lauter, 2=leiser</t>
+        </r>
       </text>
     </comment>
     <comment ref="B102" authorId="2" shapeId="0" xr:uid="{43164A2B-0D40-F748-A1C4-ADAC2F7F6301}">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     2. Rhythmus gleich oder verändert:
 1=gleich, 2 = verändert</t>
+        </r>
       </text>
     </comment>
     <comment ref="B132" authorId="3" shapeId="0" xr:uid="{202F8626-A573-8B41-945F-9C5095C99D43}">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     2. Ton länger oder kürzer:
 1=länger, 2=kürzer</t>
+        </r>
       </text>
     </comment>
     <comment ref="B182" authorId="4" shapeId="0" xr:uid="{44BDFBFC-FE9B-0047-8E64-78B527C7B320}">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     2. Ton gleich oder verändert:
 1=gleich, 2=verändert</t>
+        </r>
       </text>
     </comment>
     <comment ref="B232" authorId="5" shapeId="0" xr:uid="{900B74BB-CE70-7941-A2D3-140D68BA8DB8}">
       <text>
-        <t xml:space="preserve">[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Welcher der 3 Töne geändert:
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="B242" authorId="6" shapeId="0" xr:uid="{50DA6F93-78A7-C64D-A8D9-86A42C14CDEB}">
       <text>
-        <t xml:space="preserve">[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Welcher der 4 Töne geändert: </t>
+        </r>
       </text>
     </comment>
     <comment ref="B252" authorId="7" shapeId="0" xr:uid="{51D5F69D-9A75-EE49-8DB8-FF44B6800E18}">
       <text>
-        <t xml:space="preserve">[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Welcher der 5 Töne geändert? </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -107,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="271">
   <si>
     <t>item_number</t>
   </si>
@@ -917,13 +989,16 @@
   </si>
   <si>
     <t>tonal_memory30</t>
+  </si>
+  <si>
+    <t>number_choices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1057,12 +1132,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1421,8 +1490,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1821,20 +1890,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D261"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C232" sqref="C232:C261"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="C252" sqref="C252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1847,8 +1916,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1861,8 +1933,11 @@
       <c r="D2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1875,8 +1950,11 @@
       <c r="D3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1889,8 +1967,11 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1903,8 +1984,11 @@
       <c r="D5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1917,8 +2001,11 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1931,8 +2018,11 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1945,8 +2035,11 @@
       <c r="D8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1959,8 +2052,11 @@
       <c r="D9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1973,8 +2069,11 @@
       <c r="D10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1987,8 +2086,11 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2001,8 +2103,11 @@
       <c r="D12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2015,8 +2120,11 @@
       <c r="D13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2029,8 +2137,11 @@
       <c r="D14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2043,8 +2154,11 @@
       <c r="D15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="D16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2071,8 +2188,11 @@
       <c r="D17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2085,8 +2205,11 @@
       <c r="D18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2099,8 +2222,11 @@
       <c r="D19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2113,8 +2239,11 @@
       <c r="D20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2127,8 +2256,11 @@
       <c r="D21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2141,8 +2273,11 @@
       <c r="D22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2155,8 +2290,11 @@
       <c r="D23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2169,8 +2307,11 @@
       <c r="D24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2183,8 +2324,11 @@
       <c r="D25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2197,8 +2341,11 @@
       <c r="D26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2211,8 +2358,11 @@
       <c r="D27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2225,8 +2375,11 @@
       <c r="D28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -2239,8 +2392,11 @@
       <c r="D29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -2253,8 +2409,11 @@
       <c r="D30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2267,8 +2426,11 @@
       <c r="D31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2281,8 +2443,11 @@
       <c r="D32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2295,8 +2460,11 @@
       <c r="D33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2309,8 +2477,11 @@
       <c r="D34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2323,8 +2494,11 @@
       <c r="D35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2337,8 +2511,11 @@
       <c r="D36" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2351,8 +2528,11 @@
       <c r="D37" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2365,8 +2545,11 @@
       <c r="D38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2379,8 +2562,11 @@
       <c r="D39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2393,8 +2579,11 @@
       <c r="D40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2407,8 +2596,11 @@
       <c r="D41" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2421,8 +2613,11 @@
       <c r="D42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2435,8 +2630,11 @@
       <c r="D43" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2449,8 +2647,11 @@
       <c r="D44" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2463,8 +2664,11 @@
       <c r="D45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2477,8 +2681,11 @@
       <c r="D46" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2491,8 +2698,11 @@
       <c r="D47" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2505,8 +2715,11 @@
       <c r="D48" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2519,8 +2732,11 @@
       <c r="D49" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2533,8 +2749,11 @@
       <c r="D50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2547,8 +2766,11 @@
       <c r="D51" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2561,8 +2783,11 @@
       <c r="D52" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -2575,8 +2800,11 @@
       <c r="D53" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -2589,8 +2817,11 @@
       <c r="D54" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -2603,8 +2834,11 @@
       <c r="D55" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -2617,8 +2851,11 @@
       <c r="D56" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2631,8 +2868,11 @@
       <c r="D57" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -2645,8 +2885,11 @@
       <c r="D58" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2659,8 +2902,11 @@
       <c r="D59" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -2673,8 +2919,11 @@
       <c r="D60" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2687,8 +2936,11 @@
       <c r="D61" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2701,8 +2953,11 @@
       <c r="D62" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2715,8 +2970,11 @@
       <c r="D63" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2729,8 +2987,11 @@
       <c r="D64" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2743,8 +3004,11 @@
       <c r="D65" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2757,8 +3021,11 @@
       <c r="D66" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2771,8 +3038,11 @@
       <c r="D67" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2785,8 +3055,11 @@
       <c r="D68" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2799,8 +3072,11 @@
       <c r="D69" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2813,8 +3089,11 @@
       <c r="D70" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2827,8 +3106,11 @@
       <c r="D71" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2841,8 +3123,11 @@
       <c r="D72" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2855,8 +3140,11 @@
       <c r="D73" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2869,8 +3157,11 @@
       <c r="D74" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2883,8 +3174,11 @@
       <c r="D75" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2897,8 +3191,11 @@
       <c r="D76" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2911,8 +3208,11 @@
       <c r="D77" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2925,8 +3225,11 @@
       <c r="D78" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2939,8 +3242,11 @@
       <c r="D79" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2953,8 +3259,11 @@
       <c r="D80" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2967,8 +3276,11 @@
       <c r="D81" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2981,8 +3293,11 @@
       <c r="D82" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2995,8 +3310,11 @@
       <c r="D83" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -3009,8 +3327,11 @@
       <c r="D84" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -3023,8 +3344,11 @@
       <c r="D85" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -3037,8 +3361,11 @@
       <c r="D86" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -3051,8 +3378,11 @@
       <c r="D87" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -3065,8 +3395,11 @@
       <c r="D88" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -3079,8 +3412,11 @@
       <c r="D89" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -3093,8 +3429,11 @@
       <c r="D90" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -3107,8 +3446,11 @@
       <c r="D91" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -3121,8 +3463,11 @@
       <c r="D92" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -3135,8 +3480,11 @@
       <c r="D93" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -3149,8 +3497,11 @@
       <c r="D94" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -3163,8 +3514,11 @@
       <c r="D95" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -3177,8 +3531,11 @@
       <c r="D96" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -3191,8 +3548,11 @@
       <c r="D97" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -3205,8 +3565,11 @@
       <c r="D98" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -3219,8 +3582,11 @@
       <c r="D99" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -3233,8 +3599,11 @@
       <c r="D100" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -3247,8 +3616,11 @@
       <c r="D101" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -3261,8 +3633,11 @@
       <c r="D102" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -3275,8 +3650,11 @@
       <c r="D103" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -3289,8 +3667,11 @@
       <c r="D104" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -3303,8 +3684,11 @@
       <c r="D105" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -3317,8 +3701,11 @@
       <c r="D106" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -3331,8 +3718,11 @@
       <c r="D107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -3345,8 +3735,11 @@
       <c r="D108" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -3359,8 +3752,11 @@
       <c r="D109" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -3373,8 +3769,11 @@
       <c r="D110" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -3387,8 +3786,11 @@
       <c r="D111" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -3401,8 +3803,11 @@
       <c r="D112" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -3415,8 +3820,11 @@
       <c r="D113" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -3429,8 +3837,11 @@
       <c r="D114" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -3443,8 +3854,11 @@
       <c r="D115" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -3457,8 +3871,11 @@
       <c r="D116" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -3471,8 +3888,11 @@
       <c r="D117" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -3485,8 +3905,11 @@
       <c r="D118" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>124</v>
       </c>
@@ -3499,8 +3922,11 @@
       <c r="D119" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -3513,8 +3939,11 @@
       <c r="D120" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -3527,8 +3956,11 @@
       <c r="D121" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -3541,8 +3973,11 @@
       <c r="D122" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -3555,8 +3990,11 @@
       <c r="D123" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -3569,8 +4007,11 @@
       <c r="D124" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -3583,8 +4024,11 @@
       <c r="D125" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -3597,8 +4041,11 @@
       <c r="D126" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -3611,8 +4058,11 @@
       <c r="D127" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -3625,8 +4075,11 @@
       <c r="D128" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -3639,8 +4092,11 @@
       <c r="D129" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -3653,8 +4109,11 @@
       <c r="D130" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -3667,8 +4126,11 @@
       <c r="D131" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>139</v>
       </c>
@@ -3681,8 +4143,11 @@
       <c r="D132" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>140</v>
       </c>
@@ -3695,8 +4160,11 @@
       <c r="D133" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>141</v>
       </c>
@@ -3709,8 +4177,11 @@
       <c r="D134" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>142</v>
       </c>
@@ -3723,8 +4194,11 @@
       <c r="D135" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>143</v>
       </c>
@@ -3737,8 +4211,11 @@
       <c r="D136" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>144</v>
       </c>
@@ -3751,8 +4228,11 @@
       <c r="D137" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>145</v>
       </c>
@@ -3765,8 +4245,11 @@
       <c r="D138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>146</v>
       </c>
@@ -3779,8 +4262,11 @@
       <c r="D139" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>147</v>
       </c>
@@ -3793,8 +4279,11 @@
       <c r="D140" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>148</v>
       </c>
@@ -3807,8 +4296,11 @@
       <c r="D141" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>138</v>
       </c>
@@ -3821,8 +4313,11 @@
       <c r="D142" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -3835,8 +4330,11 @@
       <c r="D143" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -3849,8 +4347,11 @@
       <c r="D144" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -3863,8 +4364,11 @@
       <c r="D145" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -3877,8 +4381,11 @@
       <c r="D146" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -3891,8 +4398,11 @@
       <c r="D147" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -3905,8 +4415,11 @@
       <c r="D148" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -3919,8 +4432,11 @@
       <c r="D149" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -3933,8 +4449,11 @@
       <c r="D150" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -3947,8 +4466,11 @@
       <c r="D151" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -3961,8 +4483,11 @@
       <c r="D152" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -3975,8 +4500,11 @@
       <c r="D153" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -3989,8 +4517,11 @@
       <c r="D154" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -4003,8 +4534,11 @@
       <c r="D155" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -4017,8 +4551,11 @@
       <c r="D156" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -4031,8 +4568,11 @@
       <c r="D157" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -4045,8 +4585,11 @@
       <c r="D158" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -4059,8 +4602,11 @@
       <c r="D159" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -4073,8 +4619,11 @@
       <c r="D160" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -4087,8 +4636,11 @@
       <c r="D161" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -4101,8 +4653,11 @@
       <c r="D162" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -4115,8 +4670,11 @@
       <c r="D163" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -4129,8 +4687,11 @@
       <c r="D164" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -4143,8 +4704,11 @@
       <c r="D165" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -4157,8 +4721,11 @@
       <c r="D166" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -4171,8 +4738,11 @@
       <c r="D167" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -4185,8 +4755,11 @@
       <c r="D168" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -4199,8 +4772,11 @@
       <c r="D169" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -4213,8 +4789,11 @@
       <c r="D170" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -4227,8 +4806,11 @@
       <c r="D171" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -4241,8 +4823,11 @@
       <c r="D172" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -4255,8 +4840,11 @@
       <c r="D173" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -4269,8 +4857,11 @@
       <c r="D174" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -4283,8 +4874,11 @@
       <c r="D175" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -4297,8 +4891,11 @@
       <c r="D176" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -4311,8 +4908,11 @@
       <c r="D177" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -4325,8 +4925,11 @@
       <c r="D178" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -4339,8 +4942,11 @@
       <c r="D179" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -4353,8 +4959,11 @@
       <c r="D180" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -4367,8 +4976,11 @@
       <c r="D181" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -4381,8 +4993,11 @@
       <c r="D182" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>191</v>
       </c>
@@ -4395,8 +5010,11 @@
       <c r="D183" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>192</v>
       </c>
@@ -4409,8 +5027,11 @@
       <c r="D184" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>193</v>
       </c>
@@ -4423,8 +5044,11 @@
       <c r="D185" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>194</v>
       </c>
@@ -4437,8 +5061,11 @@
       <c r="D186" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>195</v>
       </c>
@@ -4451,8 +5078,11 @@
       <c r="D187" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>196</v>
       </c>
@@ -4465,8 +5095,11 @@
       <c r="D188" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>197</v>
       </c>
@@ -4479,8 +5112,11 @@
       <c r="D189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>198</v>
       </c>
@@ -4493,8 +5129,11 @@
       <c r="D190" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>199</v>
       </c>
@@ -4507,8 +5146,11 @@
       <c r="D191" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -4521,8 +5163,11 @@
       <c r="D192" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
         <v>200</v>
       </c>
@@ -4535,8 +5180,11 @@
       <c r="D193" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
         <v>201</v>
       </c>
@@ -4549,8 +5197,11 @@
       <c r="D194" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
         <v>202</v>
       </c>
@@ -4563,8 +5214,11 @@
       <c r="D195" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
         <v>203</v>
       </c>
@@ -4577,8 +5231,11 @@
       <c r="D196" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
         <v>204</v>
       </c>
@@ -4591,8 +5248,11 @@
       <c r="D197" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
         <v>205</v>
       </c>
@@ -4605,8 +5265,11 @@
       <c r="D198" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
         <v>206</v>
       </c>
@@ -4619,8 +5282,11 @@
       <c r="D199" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
         <v>207</v>
       </c>
@@ -4633,8 +5299,11 @@
       <c r="D200" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
         <v>208</v>
       </c>
@@ -4647,8 +5316,11 @@
       <c r="D201" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
         <v>209</v>
       </c>
@@ -4661,8 +5333,11 @@
       <c r="D202" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
         <v>210</v>
       </c>
@@ -4675,8 +5350,11 @@
       <c r="D203" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
         <v>211</v>
       </c>
@@ -4689,8 +5367,11 @@
       <c r="D204" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
         <v>212</v>
       </c>
@@ -4703,8 +5384,11 @@
       <c r="D205" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
         <v>213</v>
       </c>
@@ -4717,8 +5401,11 @@
       <c r="D206" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
         <v>214</v>
       </c>
@@ -4731,8 +5418,11 @@
       <c r="D207" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
         <v>215</v>
       </c>
@@ -4745,8 +5435,11 @@
       <c r="D208" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
         <v>216</v>
       </c>
@@ -4759,8 +5452,11 @@
       <c r="D209" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
         <v>217</v>
       </c>
@@ -4773,8 +5469,11 @@
       <c r="D210" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
         <v>218</v>
       </c>
@@ -4787,8 +5486,11 @@
       <c r="D211" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
         <v>219</v>
       </c>
@@ -4801,8 +5503,11 @@
       <c r="D212" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
         <v>220</v>
       </c>
@@ -4815,8 +5520,11 @@
       <c r="D213" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
         <v>221</v>
       </c>
@@ -4829,8 +5537,11 @@
       <c r="D214" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
         <v>222</v>
       </c>
@@ -4843,8 +5554,11 @@
       <c r="D215" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
         <v>223</v>
       </c>
@@ -4857,8 +5571,11 @@
       <c r="D216" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
         <v>224</v>
       </c>
@@ -4871,8 +5588,11 @@
       <c r="D217" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
         <v>225</v>
       </c>
@@ -4885,8 +5605,11 @@
       <c r="D218" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
         <v>226</v>
       </c>
@@ -4899,8 +5622,11 @@
       <c r="D219" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
         <v>227</v>
       </c>
@@ -4913,8 +5639,11 @@
       <c r="D220" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
         <v>228</v>
       </c>
@@ -4927,8 +5656,11 @@
       <c r="D221" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
         <v>229</v>
       </c>
@@ -4941,8 +5673,11 @@
       <c r="D222" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
         <v>230</v>
       </c>
@@ -4955,8 +5690,11 @@
       <c r="D223" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
         <v>231</v>
       </c>
@@ -4969,8 +5707,11 @@
       <c r="D224" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
         <v>232</v>
       </c>
@@ -4983,8 +5724,11 @@
       <c r="D225" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
         <v>233</v>
       </c>
@@ -4997,8 +5741,11 @@
       <c r="D226" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
         <v>234</v>
       </c>
@@ -5011,8 +5758,11 @@
       <c r="D227" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="1" t="s">
         <v>235</v>
       </c>
@@ -5025,8 +5775,11 @@
       <c r="D228" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" s="1" t="s">
         <v>236</v>
       </c>
@@ -5039,8 +5792,11 @@
       <c r="D229" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" s="1" t="s">
         <v>237</v>
       </c>
@@ -5053,8 +5809,11 @@
       <c r="D230" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
         <v>238</v>
       </c>
@@ -5067,8 +5826,11 @@
       <c r="D231" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
         <v>242</v>
       </c>
@@ -5081,8 +5843,11 @@
       <c r="D232" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
         <v>243</v>
       </c>
@@ -5095,8 +5860,11 @@
       <c r="D233" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
         <v>244</v>
       </c>
@@ -5109,8 +5877,11 @@
       <c r="D234" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
         <v>245</v>
       </c>
@@ -5123,8 +5894,11 @@
       <c r="D235" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" s="1" t="s">
         <v>246</v>
       </c>
@@ -5137,8 +5911,11 @@
       <c r="D236" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
         <v>247</v>
       </c>
@@ -5151,8 +5928,11 @@
       <c r="D237" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
         <v>248</v>
       </c>
@@ -5165,8 +5945,11 @@
       <c r="D238" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" s="1" t="s">
         <v>249</v>
       </c>
@@ -5179,8 +5962,11 @@
       <c r="D239" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="1" t="s">
         <v>250</v>
       </c>
@@ -5193,8 +5979,11 @@
       <c r="D240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" s="1" t="s">
         <v>251</v>
       </c>
@@ -5207,8 +5996,11 @@
       <c r="D241" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
@@ -5221,8 +6013,11 @@
       <c r="D242" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" s="1" t="s">
         <v>252</v>
       </c>
@@ -5235,8 +6030,11 @@
       <c r="D243" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244" s="1" t="s">
         <v>253</v>
       </c>
@@ -5249,8 +6047,11 @@
       <c r="D244" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" s="1" t="s">
         <v>254</v>
       </c>
@@ -5263,8 +6064,11 @@
       <c r="D245" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246" s="1" t="s">
         <v>255</v>
       </c>
@@ -5277,8 +6081,11 @@
       <c r="D246" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
         <v>256</v>
       </c>
@@ -5291,8 +6098,11 @@
       <c r="D247" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248" s="1" t="s">
         <v>257</v>
       </c>
@@ -5305,8 +6115,11 @@
       <c r="D248" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
         <v>258</v>
       </c>
@@ -5319,8 +6132,11 @@
       <c r="D249" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
         <v>259</v>
       </c>
@@ -5333,8 +6149,11 @@
       <c r="D250" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
         <v>260</v>
       </c>
@@ -5347,8 +6166,11 @@
       <c r="D251" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
         <v>241</v>
       </c>
@@ -5361,8 +6183,11 @@
       <c r="D252" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253" s="1" t="s">
         <v>261</v>
       </c>
@@ -5375,8 +6200,11 @@
       <c r="D253" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E253">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
         <v>262</v>
       </c>
@@ -5389,8 +6217,11 @@
       <c r="D254" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E254">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
         <v>263</v>
       </c>
@@ -5403,8 +6234,11 @@
       <c r="D255" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E255">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" s="1" t="s">
         <v>264</v>
       </c>
@@ -5417,8 +6251,11 @@
       <c r="D256" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E256">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" s="1" t="s">
         <v>265</v>
       </c>
@@ -5431,8 +6268,11 @@
       <c r="D257" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E257">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" s="1" t="s">
         <v>266</v>
       </c>
@@ -5445,8 +6285,11 @@
       <c r="D258" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E258">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" s="1" t="s">
         <v>267</v>
       </c>
@@ -5459,8 +6302,11 @@
       <c r="D259" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E259">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" s="1" t="s">
         <v>268</v>
       </c>
@@ -5473,8 +6319,11 @@
       <c r="D260" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261" s="1" t="s">
         <v>269</v>
       </c>
@@ -5486,6 +6335,9 @@
       </c>
       <c r="D261" t="s">
         <v>239</v>
+      </c>
+      <c r="E261">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
